--- a/public/templates/employee-import-multilevel.xlsx
+++ b/public/templates/employee-import-multilevel.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zalin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Egyéb számítógépek\Saját laptop\NWB\IT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4A53CD0-716B-44FA-B30E-4B11B58D9119}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{421C7939-72D5-4F8B-8A80-F5CC30456DBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{B8101BD5-FF7D-4300-8661-5C2AE393DE98}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1" xr2:uid="{B8101BD5-FF7D-4300-8661-5C2AE393DE98}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
-    <sheet name="Munka2" sheetId="2" state="hidden" r:id="rId2"/>
+    <sheet name="Munka2" sheetId="2" r:id="rId2"/>
     <sheet name="Instructions" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -1554,9 +1554,6 @@
   </si>
   <si>
     <t>500.</t>
-  </si>
-  <si>
-    <t>normal</t>
   </si>
   <si>
     <t>ceo</t>
@@ -1618,6 +1615,9 @@
   </si>
   <si>
     <t>manager</t>
+  </si>
+  <si>
+    <t>employee</t>
   </si>
 </sst>
 </file>
@@ -2072,7 +2072,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9774B1B6-F6F7-4101-B3B2-84A3CB14BC7B}">
   <dimension ref="A1:H501"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
@@ -2102,7 +2102,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>4</v>
@@ -8133,25 +8133,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2C3CE01-2556-48C1-A9B1-6A8FA9F3710A}">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
   </sheetData>
@@ -8171,7 +8171,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
